--- a/techniqo/data_new_ticker/ISEC.xlsx
+++ b/techniqo/data_new_ticker/ISEC.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G606"/>
+  <dimension ref="A1:G608"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21636,6 +21636,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B607" t="n">
+        <v>480</v>
+      </c>
+      <c r="C607" t="n">
+        <v>482</v>
+      </c>
+      <c r="D607" t="n">
+        <v>466.65</v>
+      </c>
+      <c r="E607" t="n">
+        <v>475.65</v>
+      </c>
+      <c r="F607" t="n">
+        <v>285626</v>
+      </c>
+      <c r="G607" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B608" t="n">
+        <v>478.05</v>
+      </c>
+      <c r="C608" t="n">
+        <v>491.5</v>
+      </c>
+      <c r="D608" t="n">
+        <v>478.05</v>
+      </c>
+      <c r="E608" t="n">
+        <v>484.4</v>
+      </c>
+      <c r="F608" t="n">
+        <v>360479</v>
+      </c>
+      <c r="G608" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/ISEC.xlsx
+++ b/techniqo/data_new_ticker/ISEC.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G608"/>
+  <dimension ref="A1:G610"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21686,6 +21686,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B609" t="n">
+        <v>484.4</v>
+      </c>
+      <c r="C609" t="n">
+        <v>489</v>
+      </c>
+      <c r="D609" t="n">
+        <v>475.65</v>
+      </c>
+      <c r="E609" t="n">
+        <v>478.35</v>
+      </c>
+      <c r="F609" t="n">
+        <v>213398</v>
+      </c>
+      <c r="G609" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B610" t="n">
+        <v>482.7</v>
+      </c>
+      <c r="C610" t="n">
+        <v>496</v>
+      </c>
+      <c r="D610" t="n">
+        <v>475.6</v>
+      </c>
+      <c r="E610" t="n">
+        <v>479.2</v>
+      </c>
+      <c r="F610" t="n">
+        <v>597117</v>
+      </c>
+      <c r="G610" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
